--- a/biology/Zoologie/Corinnidae/Corinnidae.xlsx
+++ b/biology/Zoologie/Corinnidae/Corinnidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Corinnidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Corinnidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 06/08/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 06/08/2023) :
 Abapeba Bonaldo, 2000
 Aetius O. Pickard-Cambridge, 1897
 Allomedmassa Dankittipakul &amp; Singtripop, 2014
@@ -678,7 +698,7 @@
 Vendaphaea Haddad, 2009
 Wasaka Haddad, 2013
 Xeropigo O. Pickard-Cambridge, 1882
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Ablator Petrunkevitch, 1942
 † Alterphrurolithus Wunderlich, 2004
 † Chemmisomma Wunderlich, 1988
@@ -714,11 +734,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Karsch en 1880 comme une sous-famille des Drassidae. Après avoir été placée dans les Clubionidae, elle est élevée au rang de famille par Lehtinen en 1967[3]. Elle est considérée comme valide par Wunderlich en 1986[4].
-Les Trachelidae et les Phrurolithidae en ont été exclues par Ramírez en 2014[5].
-Cette famille rassemble 849 espèces dans 76 genres[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Karsch en 1880 comme une sous-famille des Drassidae. Après avoir été placée dans les Clubionidae, elle est élevée au rang de famille par Lehtinen en 1967. Elle est considérée comme valide par Wunderlich en 1986.
+Les Trachelidae et les Phrurolithidae en ont été exclues par Ramírez en 2014.
+Cette famille rassemble 849 espèces dans 76 genres.
 </t>
         </is>
       </c>
@@ -747,7 +769,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Karsch, 1880 : « Arachnologische Blätter (Decas I). » Zeitschrift für die gesammten Naturwissenschaften, vol. 53, p. 373-409.</t>
         </is>
